--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed3/result_data_RandomForest.xlsx
@@ -522,10 +522,10 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.918699999999999</v>
+        <v>-8.089900000000002</v>
       </c>
       <c r="E5" t="n">
-        <v>12.289</v>
+        <v>12.24209999999999</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.501699999999998</v>
+        <v>-8.1835</v>
       </c>
       <c r="E6" t="n">
-        <v>12.40049999999999</v>
+        <v>12.54810000000001</v>
       </c>
     </row>
     <row r="7">
@@ -553,10 +553,10 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-10.92439999999999</v>
+        <v>-11.14449999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.644299999999991</v>
+        <v>-7.822899999999993</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-20.8925</v>
+        <v>-20.9462</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.0396</v>
+        <v>-8.0831</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.336100000000002</v>
+        <v>-8.289300000000003</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.49799999999998</v>
+        <v>-20.47659999999998</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.637099999999991</v>
+        <v>-6.361699999999995</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.73370000000004</v>
+        <v>-22.82790000000004</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -641,10 +641,10 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.1913</v>
+        <v>-8.253499999999997</v>
       </c>
       <c r="E12" t="n">
-        <v>12.72259999999999</v>
+        <v>12.70879999999999</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.21</v>
+        <v>6.464699999999999</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.61750000000003</v>
+        <v>-22.60450000000003</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05439999999999</v>
+        <v>12.95599999999999</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-15.26089999999999</v>
+        <v>-15.04169999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>12.89979999999999</v>
+        <v>12.78969999999999</v>
       </c>
     </row>
     <row r="21">
@@ -831,7 +831,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>13.5386</v>
+        <v>13.20440000000001</v>
       </c>
     </row>
     <row r="24">
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.28490000000004</v>
+        <v>-22.35360000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.4395</v>
+        <v>13.1817</v>
       </c>
     </row>
   </sheetData>
